--- a/indicators/South Sudan resilience - indicator summary table.xlsx
+++ b/indicators/South Sudan resilience - indicator summary table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dan.killian\Documents\South Sudan resilience - MSI\indicators\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F0BF2EA-5C33-46F9-B9B6-23D49EA01529}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB3B377-27A2-4B4F-AA9C-41D686084C23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{EF09886B-70ED-4767-AA41-AE22B8308706}"/>
   </bookViews>
@@ -1004,11 +1004,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4E5DC57-E005-4075-845E-7AE3F2C45A79}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:R29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.45"/>
@@ -1053,7 +1052,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="33.6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:18" ht="33.6" x14ac:dyDescent="0.45">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1085,7 +1084,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="33.450000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:18" ht="33.450000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -1114,7 +1113,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -1143,7 +1142,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -1172,7 +1171,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="33.6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:18" ht="33.6" x14ac:dyDescent="0.45">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -1201,7 +1200,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -1259,7 +1258,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="33.6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:18" ht="33.6" x14ac:dyDescent="0.45">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -1288,7 +1287,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -1317,7 +1316,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="50.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:18" ht="50.4" x14ac:dyDescent="0.45">
       <c r="A11" s="9">
         <v>10</v>
       </c>
@@ -1346,7 +1345,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="33.6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:18" ht="33.6" x14ac:dyDescent="0.45">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -1373,7 +1372,7 @@
       </c>
       <c r="I12" s="21"/>
     </row>
-    <row r="13" spans="1:18" ht="33.6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:18" ht="33.6" x14ac:dyDescent="0.45">
       <c r="A13" s="9">
         <v>12</v>
       </c>
@@ -1429,7 +1428,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="131.55000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:18" ht="131.55000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="9">
         <v>14</v>
       </c>
@@ -1458,7 +1457,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:18" hidden="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -1516,7 +1515,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="33.6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:9" ht="33.6" x14ac:dyDescent="0.45">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -1603,7 +1602,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="33.6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:9" ht="33.6" x14ac:dyDescent="0.45">
       <c r="A21" s="9">
         <v>20</v>
       </c>
@@ -1632,7 +1631,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" s="7">
         <v>21</v>
       </c>
@@ -1661,7 +1660,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="33.6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:9" ht="33.6" x14ac:dyDescent="0.45">
       <c r="A23" s="9">
         <v>22</v>
       </c>
@@ -1690,7 +1689,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="33.6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:9" ht="33.6" x14ac:dyDescent="0.45">
       <c r="A24" s="7">
         <v>23</v>
       </c>
@@ -1719,7 +1718,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="33.6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:9" ht="33.6" x14ac:dyDescent="0.45">
       <c r="A25" s="9">
         <v>24</v>
       </c>
@@ -1748,7 +1747,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="33.6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:9" ht="33.6" x14ac:dyDescent="0.45">
       <c r="A26" s="7">
         <v>25</v>
       </c>
@@ -1777,7 +1776,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="33.6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:9" ht="33.6" x14ac:dyDescent="0.45">
       <c r="A27" s="9">
         <v>26</v>
       </c>
@@ -1806,7 +1805,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="33.6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:9" ht="33.6" x14ac:dyDescent="0.45">
       <c r="A28" s="7">
         <v>27</v>
       </c>
@@ -1835,7 +1834,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="34.200000000000003" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:9" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A29" s="11">
         <v>28</v>
       </c>
@@ -1865,13 +1864,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I29" xr:uid="{D50C3520-0774-40FF-AFC2-9B48C523839F}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Social norms"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:I29" xr:uid="{D50C3520-0774-40FF-AFC2-9B48C523839F}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/indicators/South Sudan resilience - indicator summary table.xlsx
+++ b/indicators/South Sudan resilience - indicator summary table.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dan.killian\Documents\South Sudan resilience - MSI\indicators\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB3B377-27A2-4B4F-AA9C-41D686084C23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA7C9514-59D3-41A8-B9AF-E7A36192C04A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{EF09886B-70ED-4767-AA41-AE22B8308706}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{EF09886B-70ED-4767-AA41-AE22B8308706}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$I$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$J$29</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="109">
   <si>
     <t>Variable Type</t>
   </si>
@@ -358,6 +358,12 @@
   </si>
   <si>
     <t>Shocks and stresses</t>
+  </si>
+  <si>
+    <t>Mission PMP Indicator</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -1004,26 +1010,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4E5DC57-E005-4075-845E-7AE3F2C45A79}">
-  <dimension ref="A1:R29"/>
+  <dimension ref="A1:S29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="4.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="61.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.6640625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="61.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:19" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>64</v>
       </c>
@@ -1034,25 +1040,28 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="33.6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:19" ht="33.6" x14ac:dyDescent="0.45">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1062,29 +1071,30 @@
       <c r="C2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="13"/>
+      <c r="E2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>65</v>
-      </c>
       <c r="F2" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="I2" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="I2" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="J2" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="S2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="33.450000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:19" ht="33.450000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -1094,26 +1104,29 @@
       <c r="C3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="F3" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="G3" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="H3" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="I3" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="I3" s="20" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="J3" s="20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -1123,26 +1136,27 @@
       <c r="C4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="15"/>
+      <c r="E4" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="15" t="s">
-        <v>65</v>
-      </c>
       <c r="F4" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="I4" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="I4" s="21" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="J4" s="21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -1152,26 +1166,27 @@
       <c r="C5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="14"/>
+      <c r="E5" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="14" t="s">
-        <v>65</v>
-      </c>
       <c r="F5" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="I5" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="I5" s="20" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="33.6" x14ac:dyDescent="0.45">
+      <c r="J5" s="20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="33.6" x14ac:dyDescent="0.45">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -1181,26 +1196,27 @@
       <c r="C6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="15"/>
+      <c r="E6" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="G6" s="8" t="s">
+      <c r="F6" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="H6" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="I6" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="I6" s="21" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="J6" s="21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -1210,26 +1226,27 @@
       <c r="C7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="14"/>
+      <c r="E7" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="E7" s="14" t="s">
-        <v>65</v>
-      </c>
       <c r="F7" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="I7" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="I7" s="20" t="s">
+      <c r="J7" s="20" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="33.6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:19" ht="33.6" x14ac:dyDescent="0.45">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -1239,26 +1256,27 @@
       <c r="C8" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="15"/>
+      <c r="E8" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="15" t="s">
-        <v>65</v>
-      </c>
       <c r="F8" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="I8" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="I8" s="21" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="33.6" x14ac:dyDescent="0.45">
+      <c r="J8" s="21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="33.6" x14ac:dyDescent="0.45">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -1268,26 +1286,29 @@
       <c r="C9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="F9" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="G9" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="H9" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="I9" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="I9" s="20" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="J9" s="20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -1297,26 +1318,27 @@
       <c r="C10" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="15"/>
+      <c r="E10" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="15" t="s">
-        <v>65</v>
-      </c>
       <c r="F10" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="I10" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="I10" s="21" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" ht="50.4" x14ac:dyDescent="0.45">
+      <c r="J10" s="21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="50.4" x14ac:dyDescent="0.45">
       <c r="A11" s="9">
         <v>10</v>
       </c>
@@ -1326,26 +1348,27 @@
       <c r="C11" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="14"/>
+      <c r="E11" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="14" t="s">
-        <v>65</v>
-      </c>
       <c r="F11" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="H11" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="H11" s="14" t="s">
+      <c r="I11" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="I11" s="20" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="33.6" x14ac:dyDescent="0.45">
+      <c r="J11" s="20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="33.6" x14ac:dyDescent="0.45">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -1355,24 +1378,25 @@
       <c r="C12" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="15"/>
+      <c r="E12" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="F12" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="G12" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="H12" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="I12" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="I12" s="21"/>
-    </row>
-    <row r="13" spans="1:18" ht="33.6" x14ac:dyDescent="0.45">
+      <c r="J12" s="21"/>
+    </row>
+    <row r="13" spans="1:19" ht="33.6" x14ac:dyDescent="0.45">
       <c r="A13" s="9">
         <v>12</v>
       </c>
@@ -1382,24 +1406,25 @@
       <c r="C13" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="14"/>
+      <c r="E13" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="F13" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="G13" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="H13" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="H13" s="14" t="s">
+      <c r="I13" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="I13" s="20"/>
-    </row>
-    <row r="14" spans="1:18" ht="33.6" x14ac:dyDescent="0.45">
+      <c r="J13" s="20"/>
+    </row>
+    <row r="14" spans="1:19" ht="33.6" x14ac:dyDescent="0.45">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -1409,26 +1434,27 @@
       <c r="C14" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="15"/>
+      <c r="E14" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="15" t="s">
-        <v>65</v>
-      </c>
       <c r="F14" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="H14" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="H14" s="15" t="s">
+      <c r="I14" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="I14" s="21" t="s">
+      <c r="J14" s="21" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="131.55000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:19" ht="131.55000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="9">
         <v>14</v>
       </c>
@@ -1438,26 +1464,29 @@
       <c r="C15" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="E15" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="F15" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="G15" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="H15" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="H15" s="14" t="s">
+      <c r="I15" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="I15" s="20" t="s">
+      <c r="J15" s="20" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -1467,26 +1496,27 @@
       <c r="C16" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="15"/>
+      <c r="E16" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="15" t="s">
-        <v>65</v>
-      </c>
       <c r="F16" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="G16" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="H16" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="H16" s="15" t="s">
+      <c r="I16" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="I16" s="21" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="33.6" x14ac:dyDescent="0.45">
+      <c r="J16" s="21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="33.6" x14ac:dyDescent="0.45">
       <c r="A17" s="9">
         <v>16</v>
       </c>
@@ -1496,26 +1526,27 @@
       <c r="C17" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="14"/>
+      <c r="E17" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="14" t="s">
-        <v>65</v>
-      </c>
       <c r="F17" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="H17" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="H17" s="14" t="s">
+      <c r="I17" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="I17" s="20" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="33.6" x14ac:dyDescent="0.45">
+      <c r="J17" s="20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="33.6" x14ac:dyDescent="0.45">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -1525,26 +1556,27 @@
       <c r="C18" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="15"/>
+      <c r="E18" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="15" t="s">
-        <v>65</v>
-      </c>
       <c r="F18" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="G18" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="H18" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="H18" s="15" t="s">
+      <c r="I18" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="I18" s="21" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="50.4" x14ac:dyDescent="0.45">
+      <c r="J18" s="21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="50.4" x14ac:dyDescent="0.45">
       <c r="A19" s="9">
         <v>18</v>
       </c>
@@ -1554,26 +1586,27 @@
       <c r="C19" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="14"/>
+      <c r="E19" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="14" t="s">
-        <v>65</v>
-      </c>
       <c r="F19" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G19" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="H19" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="H19" s="14" t="s">
+      <c r="I19" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="I19" s="20" t="s">
+      <c r="J19" s="20" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="50.4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:10" ht="50.4" x14ac:dyDescent="0.45">
       <c r="A20" s="7">
         <v>19</v>
       </c>
@@ -1583,26 +1616,27 @@
       <c r="C20" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="15"/>
+      <c r="E20" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="15" t="s">
-        <v>65</v>
-      </c>
       <c r="F20" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="G20" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="H20" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="H20" s="15" t="s">
+      <c r="I20" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="I20" s="21" t="s">
+      <c r="J20" s="21" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="33.6" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:10" ht="33.6" x14ac:dyDescent="0.45">
       <c r="A21" s="9">
         <v>20</v>
       </c>
@@ -1612,26 +1646,27 @@
       <c r="C21" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="14"/>
+      <c r="E21" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="14" t="s">
-        <v>65</v>
-      </c>
       <c r="F21" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="G21" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="H21" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="H21" s="14" t="s">
+      <c r="I21" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="I21" s="20" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J21" s="20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A22" s="7">
         <v>21</v>
       </c>
@@ -1641,26 +1676,27 @@
       <c r="C22" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="15"/>
+      <c r="E22" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E22" s="15" t="s">
-        <v>65</v>
-      </c>
       <c r="F22" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="G22" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="H22" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="H22" s="15" t="s">
+      <c r="I22" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="I22" s="21" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="33.6" x14ac:dyDescent="0.45">
+      <c r="J22" s="21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="33.6" x14ac:dyDescent="0.45">
       <c r="A23" s="9">
         <v>22</v>
       </c>
@@ -1670,26 +1706,27 @@
       <c r="C23" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="14"/>
+      <c r="E23" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="E23" s="14" t="s">
-        <v>65</v>
-      </c>
       <c r="F23" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="G23" s="10" t="s">
+      <c r="G23" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="H23" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="H23" s="14" t="s">
+      <c r="I23" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="I23" s="20" t="s">
+      <c r="J23" s="20" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="33.6" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:10" ht="33.6" x14ac:dyDescent="0.45">
       <c r="A24" s="7">
         <v>23</v>
       </c>
@@ -1699,26 +1736,27 @@
       <c r="C24" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="15"/>
+      <c r="E24" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="E24" s="15" t="s">
-        <v>65</v>
-      </c>
       <c r="F24" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="G24" s="8" t="s">
+      <c r="G24" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="H24" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="H24" s="15" t="s">
+      <c r="I24" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="I24" s="21" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="33.6" x14ac:dyDescent="0.45">
+      <c r="J24" s="21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="33.6" x14ac:dyDescent="0.45">
       <c r="A25" s="9">
         <v>24</v>
       </c>
@@ -1728,26 +1766,27 @@
       <c r="C25" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="14"/>
+      <c r="E25" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="E25" s="14" t="s">
-        <v>65</v>
-      </c>
       <c r="F25" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="G25" s="10" t="s">
+      <c r="G25" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="H25" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="H25" s="14" t="s">
+      <c r="I25" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="I25" s="20" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="33.6" x14ac:dyDescent="0.45">
+      <c r="J25" s="20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="33.6" x14ac:dyDescent="0.45">
       <c r="A26" s="7">
         <v>25</v>
       </c>
@@ -1757,26 +1796,27 @@
       <c r="C26" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="15"/>
+      <c r="E26" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E26" s="15" t="s">
-        <v>65</v>
-      </c>
       <c r="F26" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="G26" s="8" t="s">
+      <c r="G26" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="H26" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="H26" s="15" t="s">
+      <c r="I26" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="I26" s="21" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="33.6" x14ac:dyDescent="0.45">
+      <c r="J26" s="21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="33.6" x14ac:dyDescent="0.45">
       <c r="A27" s="9">
         <v>26</v>
       </c>
@@ -1786,26 +1826,27 @@
       <c r="C27" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="14"/>
+      <c r="E27" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="E27" s="14" t="s">
+      <c r="F27" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="F27" s="14" t="s">
+      <c r="G27" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="G27" s="10" t="s">
+      <c r="H27" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="H27" s="14" t="s">
+      <c r="I27" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="I27" s="20" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="33.6" x14ac:dyDescent="0.45">
+      <c r="J27" s="20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="33.6" x14ac:dyDescent="0.45">
       <c r="A28" s="7">
         <v>27</v>
       </c>
@@ -1815,26 +1856,27 @@
       <c r="C28" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="15"/>
+      <c r="E28" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E28" s="15" t="s">
+      <c r="F28" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="F28" s="15" t="s">
+      <c r="G28" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="G28" s="8" t="s">
+      <c r="H28" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="H28" s="15" t="s">
+      <c r="I28" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="I28" s="21" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="J28" s="21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A29" s="11">
         <v>28</v>
       </c>
@@ -1844,27 +1886,28 @@
       <c r="C29" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="D29" s="16"/>
+      <c r="E29" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="F29" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="F29" s="16" t="s">
+      <c r="G29" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="G29" s="12" t="s">
+      <c r="H29" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="H29" s="16" t="s">
+      <c r="I29" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="I29" s="22" t="s">
+      <c r="J29" s="22" t="s">
         <v>65</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I29" xr:uid="{D50C3520-0774-40FF-AFC2-9B48C523839F}"/>
+  <autoFilter ref="A1:J29" xr:uid="{D50C3520-0774-40FF-AFC2-9B48C523839F}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
